--- a/TestcasesData/DASHPRO_WATERFALL.xlsx
+++ b/TestcasesData/DASHPRO_WATERFALL.xlsx
@@ -4177,7 +4177,7 @@
   <dimension ref="A1:L39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B5" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
